--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174824.98</v>
+        <v>173912.02</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29137.5</v>
+        <v>28985.34</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54477.19</v>
+        <v>54338.63</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104240.88</v>
+        <v>103716.78</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9901.85</v>
+        <v>10249.72</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4414.72</v>
+        <v>3859.32</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>471.7</v>
+        <v>476.84</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1318.64</v>
+        <v>1270.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,88 +436,117 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173912.02</v>
+        <v>1232.71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1263.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28985.34</v>
+        <v>54280.53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54394.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54338.63</v>
+        <v>104194.03</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103608.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103716.78</v>
+        <v>9546.450000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9630.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10249.72</v>
+        <v>4310.09</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4295.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3859.32</v>
+        <v>424.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>408.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>476.84</v>
+        <v>28998.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28933.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1270.73</v>
+        <v>173988.13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>173601.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,105 +443,81 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.71</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1263.59</v>
+        <v>173601.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54280.53</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54394.51</v>
+        <v>28933.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104194.03</v>
-      </c>
-      <c r="C4" t="n">
-        <v>103608.94</v>
+        <v>1263.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9546.450000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9630.27</v>
+        <v>54394.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4310.09</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4295.94</v>
+        <v>103608.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>408.3</v>
+        <v>9630.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28998.02</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28933.59</v>
+        <v>4295.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173988.13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>173601.55</v>
+        <v>408.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,112 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173601.55</v>
+        <v>1263.59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1519.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28933.59</v>
+        <v>54394.51</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54407.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1263.59</v>
+        <v>103608.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103625.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54394.51</v>
-      </c>
+        <v>9630.27</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103608.94</v>
+        <v>4295.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4026.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9630.27</v>
+        <v>408.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>445.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4295.94</v>
+        <v>28933.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32804.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>408.3</v>
+        <v>173601.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>164024.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>1519.64</v>
       </c>
+      <c r="D2" t="n">
+        <v>1212.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>54407.67</v>
       </c>
+      <c r="D3" t="n">
+        <v>54435.82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>103625.92</v>
       </c>
+      <c r="D4" t="n">
+        <v>104512.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
         <v>9630.27</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>10228.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
       <c r="C6" t="n">
         <v>4026.55</v>
       </c>
+      <c r="D6" t="n">
+        <v>4368.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
       <c r="C7" t="n">
         <v>445.02</v>
       </c>
+      <c r="D7" t="n">
+        <v>475.49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -533,6 +556,9 @@
       <c r="C8" t="n">
         <v>32804.96</v>
       </c>
+      <c r="D8" t="n">
+        <v>29205.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,6 +571,9 @@
       </c>
       <c r="C9" t="n">
         <v>164024.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>175233.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>1212.82</v>
       </c>
+      <c r="E2" t="n">
+        <v>1268.88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>54435.82</v>
       </c>
+      <c r="E3" t="n">
+        <v>54206.63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -496,6 +507,9 @@
       </c>
       <c r="D4" t="n">
         <v>104512.81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>103627.45</v>
       </c>
     </row>
     <row r="5">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>10228.31</v>
       </c>
+      <c r="E5" t="n">
+        <v>10037.51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>4368.14</v>
       </c>
+      <c r="E6" t="n">
+        <v>3773.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -543,6 +563,9 @@
       <c r="D7" t="n">
         <v>475.49</v>
       </c>
+      <c r="E7" t="n">
+        <v>478.15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -559,6 +582,9 @@
       <c r="D8" t="n">
         <v>29205.57</v>
       </c>
+      <c r="E8" t="n">
+        <v>28898.72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -574,6 +600,9 @@
       </c>
       <c r="D9" t="n">
         <v>175233.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>173392.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>1268.88</v>
       </c>
+      <c r="F2" t="n">
+        <v>1234.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>54206.63</v>
       </c>
+      <c r="F3" t="n">
+        <v>54548.43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>103627.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>104214.85</v>
       </c>
     </row>
     <row r="5">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>10037.51</v>
       </c>
+      <c r="F5" t="n">
+        <v>9536.48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>3773.67</v>
       </c>
+      <c r="F6" t="n">
+        <v>3662.89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -566,6 +586,9 @@
       <c r="E7" t="n">
         <v>478.15</v>
       </c>
+      <c r="F7" t="n">
+        <v>451.57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -585,6 +608,9 @@
       <c r="E8" t="n">
         <v>28898.72</v>
       </c>
+      <c r="F8" t="n">
+        <v>28941.44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -603,6 +629,9 @@
       </c>
       <c r="E9" t="n">
         <v>173392.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>173648.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>1234.44</v>
       </c>
+      <c r="G2" t="n">
+        <v>1257.34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>54548.43</v>
       </c>
+      <c r="G3" t="n">
+        <v>54377.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>104214.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>104281.62</v>
       </c>
     </row>
     <row r="5">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>9536.48</v>
       </c>
+      <c r="G5" t="n">
+        <v>9729.459999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>3662.89</v>
       </c>
+      <c r="G6" t="n">
+        <v>3808.56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -589,6 +609,9 @@
       <c r="F7" t="n">
         <v>451.57</v>
       </c>
+      <c r="G7" t="n">
+        <v>448.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -611,6 +634,9 @@
       <c r="F8" t="n">
         <v>28941.44</v>
       </c>
+      <c r="G8" t="n">
+        <v>28983.93</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -632,6 +658,9 @@
       </c>
       <c r="F9" t="n">
         <v>173648.66</v>
+      </c>
+      <c r="G9" t="n">
+        <v>173903.6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>1257.34</v>
       </c>
+      <c r="H2" t="n">
+        <v>1248.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>54377.84</v>
       </c>
+      <c r="H3" t="n">
+        <v>54316.68</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>104281.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>103951.59</v>
       </c>
     </row>
     <row r="5">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>9729.459999999999</v>
       </c>
+      <c r="H5" t="n">
+        <v>9499.77</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>3808.56</v>
       </c>
+      <c r="H6" t="n">
+        <v>3656.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -612,6 +632,9 @@
       <c r="G7" t="n">
         <v>448.78</v>
       </c>
+      <c r="H7" t="n">
+        <v>438.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -637,6 +660,9 @@
       <c r="G8" t="n">
         <v>28983.93</v>
       </c>
+      <c r="H8" t="n">
+        <v>28851.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -661,6 +687,9 @@
       </c>
       <c r="G9" t="n">
         <v>173903.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>173111.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>1248.61</v>
       </c>
+      <c r="I2" t="n">
+        <v>1608.65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>54316.68</v>
       </c>
+      <c r="I3" t="n">
+        <v>54478.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>103951.59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>103562.52</v>
       </c>
     </row>
     <row r="5">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>9499.77</v>
       </c>
+      <c r="I5" t="n">
+        <v>9575.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>3656.97</v>
       </c>
+      <c r="I6" t="n">
+        <v>3774.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -635,6 +655,9 @@
       <c r="H7" t="n">
         <v>438.09</v>
       </c>
+      <c r="I7" t="n">
+        <v>400.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -663,6 +686,9 @@
       <c r="H8" t="n">
         <v>28851.95</v>
       </c>
+      <c r="I8" t="n">
+        <v>28900.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -690,6 +716,9 @@
       </c>
       <c r="H9" t="n">
         <v>173111.71</v>
+      </c>
+      <c r="I9" t="n">
+        <v>173400.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>1608.65</v>
       </c>
+      <c r="J2" t="n">
+        <v>1539.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>54478.88</v>
       </c>
+      <c r="J3" t="n">
+        <v>54595.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -566,6 +577,9 @@
       </c>
       <c r="I4" t="n">
         <v>103562.52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>103969.62</v>
       </c>
     </row>
     <row r="5">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>9575.34</v>
       </c>
+      <c r="J5" t="n">
+        <v>10443.57</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -627,6 +644,9 @@
       <c r="I6" t="n">
         <v>3774.91</v>
       </c>
+      <c r="J6" t="n">
+        <v>3714.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -658,6 +678,9 @@
       <c r="I7" t="n">
         <v>400.41</v>
       </c>
+      <c r="J7" t="n">
+        <v>378.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -689,6 +712,9 @@
       <c r="I8" t="n">
         <v>28900.12</v>
       </c>
+      <c r="J8" t="n">
+        <v>29106.74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -719,6 +745,9 @@
       </c>
       <c r="I9" t="n">
         <v>173400.71</v>
+      </c>
+      <c r="J9" t="n">
+        <v>174640.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>1539.15</v>
       </c>
+      <c r="K2" t="n">
+        <v>1420.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>54595.47</v>
       </c>
+      <c r="K3" t="n">
+        <v>54345.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
       </c>
       <c r="J4" t="n">
         <v>103969.62</v>
+      </c>
+      <c r="K4" t="n">
+        <v>104177.4</v>
       </c>
     </row>
     <row r="5">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>10443.57</v>
       </c>
+      <c r="K5" t="n">
+        <v>9934.940000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -647,6 +664,9 @@
       <c r="J6" t="n">
         <v>3714.18</v>
       </c>
+      <c r="K6" t="n">
+        <v>4472.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -681,6 +701,9 @@
       <c r="J7" t="n">
         <v>378.46</v>
       </c>
+      <c r="K7" t="n">
+        <v>353.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -715,6 +738,9 @@
       <c r="J8" t="n">
         <v>29106.74</v>
       </c>
+      <c r="K8" t="n">
+        <v>29117.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -748,6 +774,9 @@
       </c>
       <c r="J9" t="n">
         <v>174640.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>174704.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>1420.95</v>
       </c>
+      <c r="L2" t="n">
+        <v>1289.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>54345.54</v>
       </c>
+      <c r="L3" t="n">
+        <v>54486.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>104177.4</v>
       </c>
+      <c r="L4" t="n">
+        <v>103980.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>9934.940000000001</v>
       </c>
+      <c r="L5" t="n">
+        <v>9635.610000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -667,6 +684,9 @@
       <c r="K6" t="n">
         <v>4472.25</v>
       </c>
+      <c r="L6" t="n">
+        <v>4373.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -704,6 +724,9 @@
       <c r="K7" t="n">
         <v>353.05</v>
       </c>
+      <c r="L7" t="n">
+        <v>656.1799999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -741,6 +764,9 @@
       <c r="K8" t="n">
         <v>29117.35</v>
       </c>
+      <c r="L8" t="n">
+        <v>29070.13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -777,6 +803,9 @@
       </c>
       <c r="K9" t="n">
         <v>174704.13</v>
+      </c>
+      <c r="L9" t="n">
+        <v>174420.76</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>1289.56</v>
       </c>
+      <c r="M2" t="n">
+        <v>1245.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>54486.18</v>
       </c>
+      <c r="M3" t="n">
+        <v>54337.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>103980.12</v>
       </c>
+      <c r="M4" t="n">
+        <v>104428.48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -647,6 +661,9 @@
       <c r="L5" t="n">
         <v>9635.610000000001</v>
       </c>
+      <c r="M5" t="n">
+        <v>10456.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -687,6 +704,9 @@
       <c r="L6" t="n">
         <v>4373.11</v>
       </c>
+      <c r="M6" t="n">
+        <v>4319.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -727,6 +747,9 @@
       <c r="L7" t="n">
         <v>656.1799999999999</v>
       </c>
+      <c r="M7" t="n">
+        <v>640.9400000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -767,6 +790,9 @@
       <c r="L8" t="n">
         <v>29070.13</v>
       </c>
+      <c r="M8" t="n">
+        <v>29237.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -806,6 +832,9 @@
       </c>
       <c r="L9" t="n">
         <v>174420.76</v>
+      </c>
+      <c r="M9" t="n">
+        <v>175426.97</v>
       </c>
     </row>
   </sheetData>
